--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/rws_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/rws_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -397,7 +397,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
@@ -405,7 +405,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
@@ -421,7 +421,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
@@ -429,7 +429,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
@@ -445,7 +445,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -453,7 +453,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
@@ -469,7 +469,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
@@ -477,7 +477,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13">
@@ -485,7 +485,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14">
@@ -493,7 +493,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15">
@@ -501,7 +501,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16">
@@ -509,7 +509,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17">
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18">
@@ -525,7 +525,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19">
@@ -533,7 +533,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20">
@@ -541,7 +541,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21">
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -790,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -798,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -822,7 +822,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -830,7 +830,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -838,7 +838,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -846,7 +846,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
@@ -854,7 +854,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -862,7 +862,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -870,7 +870,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -878,7 +878,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
@@ -886,7 +886,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -894,7 +894,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -902,7 +902,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
@@ -910,7 +910,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
@@ -918,7 +918,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
@@ -926,7 +926,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -934,7 +934,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
@@ -942,7 +942,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
@@ -950,7 +950,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
@@ -958,7 +958,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
@@ -966,7 +966,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
@@ -974,7 +974,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -982,7 +982,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -990,7 +990,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
@@ -998,7 +998,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30">
@@ -1006,7 +1006,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31">
@@ -1014,7 +1014,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
@@ -1022,7 +1022,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33">
@@ -1030,7 +1030,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34">
@@ -1038,7 +1038,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
@@ -1046,7 +1046,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
@@ -1054,7 +1054,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37">
@@ -1062,7 +1062,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38">
@@ -1094,7 +1094,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42">
@@ -1191,7 +1191,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -1199,7 +1199,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -1207,7 +1207,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -1215,7 +1215,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -1223,7 +1223,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
@@ -1231,7 +1231,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -1239,7 +1239,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -1247,7 +1247,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
@@ -1255,7 +1255,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -1263,7 +1263,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -1271,7 +1271,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -1279,7 +1279,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -1287,7 +1287,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -1295,7 +1295,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
@@ -1303,7 +1303,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
@@ -1311,7 +1311,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
@@ -1319,7 +1319,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
@@ -1327,7 +1327,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
@@ -1335,7 +1335,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1343,7 +1343,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
@@ -1351,7 +1351,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26">
@@ -1359,7 +1359,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27">
@@ -1367,7 +1367,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28">
@@ -1375,7 +1375,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29">
@@ -1383,7 +1383,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -1391,7 +1391,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31">
@@ -1407,7 +1407,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
@@ -1415,7 +1415,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34">
@@ -1423,7 +1423,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
@@ -1431,7 +1431,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36">
@@ -1439,7 +1439,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37">
@@ -1447,7 +1447,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38">
@@ -1455,7 +1455,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39">
@@ -1463,7 +1463,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40">
@@ -1471,7 +1471,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
@@ -1479,7 +1479,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42">
@@ -1487,7 +1487,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43">
@@ -1495,7 +1495,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44">
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -1560,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -1568,7 +1568,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -1576,7 +1576,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -1584,7 +1584,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1592,7 +1592,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
@@ -1600,7 +1600,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -1608,7 +1608,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -1616,7 +1616,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
@@ -1624,7 +1624,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1632,7 +1632,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
@@ -1640,7 +1640,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
@@ -1648,7 +1648,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
@@ -1656,7 +1656,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
@@ -1664,7 +1664,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
@@ -1672,7 +1672,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
@@ -1680,7 +1680,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
@@ -1688,7 +1688,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
@@ -1696,7 +1696,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
@@ -1704,7 +1704,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
@@ -1712,7 +1712,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
@@ -1720,7 +1720,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
@@ -1728,7 +1728,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25">
@@ -1736,7 +1736,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
@@ -1744,7 +1744,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
@@ -1752,7 +1752,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28">
@@ -1760,7 +1760,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29">
@@ -1768,7 +1768,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30">
@@ -1776,7 +1776,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31">
@@ -1784,7 +1784,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
@@ -1792,7 +1792,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
@@ -1800,7 +1800,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34">
@@ -1808,7 +1808,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35">
@@ -1816,7 +1816,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36">
@@ -1824,7 +1824,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37">
@@ -1832,7 +1832,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38">
@@ -1840,7 +1840,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39">
@@ -1848,7 +1848,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40">
@@ -1856,7 +1856,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41">
@@ -1864,7 +1864,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42">
@@ -1872,7 +1872,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43">
@@ -1880,7 +1880,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
@@ -1888,7 +1888,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45">
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -1953,7 +1953,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -1961,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -1969,7 +1969,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -1977,7 +1977,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -1985,7 +1985,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
@@ -1993,7 +1993,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -2001,7 +2001,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -2009,7 +2009,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2017,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -2025,7 +2025,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -2033,7 +2033,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -2041,7 +2041,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
@@ -2049,7 +2049,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -2057,7 +2057,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
@@ -2065,7 +2065,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
@@ -2073,7 +2073,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
@@ -2089,7 +2089,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
@@ -2097,7 +2097,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
@@ -2105,7 +2105,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
@@ -2113,7 +2113,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
@@ -2121,7 +2121,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -2129,7 +2129,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -2161,7 +2161,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">
@@ -2169,7 +2169,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32">
@@ -2177,7 +2177,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -2185,7 +2185,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34">
@@ -2209,7 +2209,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37">
@@ -2217,7 +2217,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38">
@@ -2225,7 +2225,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39">
@@ -2233,7 +2233,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40">
@@ -2241,7 +2241,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41">
@@ -2249,7 +2249,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42">
@@ -2257,7 +2257,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43">
@@ -2265,7 +2265,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44">
@@ -2273,7 +2273,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45">
@@ -2281,7 +2281,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -2338,7 +2338,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -2346,7 +2346,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -2354,7 +2354,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -2362,7 +2362,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -2370,7 +2370,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -2378,7 +2378,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
@@ -2386,7 +2386,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -2394,7 +2394,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
@@ -2410,7 +2410,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
@@ -2418,7 +2418,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -2426,7 +2426,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16">
@@ -2434,7 +2434,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
@@ -2442,7 +2442,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -2450,7 +2450,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
@@ -2458,7 +2458,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
@@ -2466,7 +2466,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
@@ -2474,7 +2474,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
@@ -2482,7 +2482,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
@@ -2490,7 +2490,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
@@ -2498,7 +2498,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
@@ -2506,7 +2506,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
@@ -2514,7 +2514,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27">
@@ -2522,7 +2522,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28">
@@ -2530,7 +2530,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
@@ -2538,7 +2538,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30">
@@ -2546,7 +2546,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31">
@@ -2586,7 +2586,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36">
@@ -2594,7 +2594,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37">
@@ -2602,7 +2602,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38">
@@ -2610,7 +2610,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39">
@@ -2618,7 +2618,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40">
@@ -2626,7 +2626,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41">
@@ -2634,7 +2634,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42">
@@ -2642,7 +2642,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43">
@@ -2650,7 +2650,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44">
@@ -2658,7 +2658,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45">
@@ -2666,7 +2666,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46">
@@ -2674,7 +2674,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2707,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -2715,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -2723,7 +2723,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -2731,7 +2731,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -2739,7 +2739,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -2747,7 +2747,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -2755,7 +2755,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -2763,7 +2763,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -2771,7 +2771,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -2779,7 +2779,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
@@ -2787,7 +2787,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -2795,7 +2795,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
@@ -2803,7 +2803,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
@@ -2811,7 +2811,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
@@ -2819,7 +2819,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
@@ -2827,7 +2827,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
@@ -2835,7 +2835,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -2843,7 +2843,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
@@ -2851,7 +2851,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
@@ -2859,7 +2859,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -2867,7 +2867,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
@@ -2875,7 +2875,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
@@ -2883,7 +2883,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
@@ -2891,7 +2891,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
@@ -2899,7 +2899,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
@@ -2907,7 +2907,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
@@ -2915,7 +2915,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29">
@@ -2923,7 +2923,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
@@ -2979,7 +2979,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37">
@@ -2987,7 +2987,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38">
@@ -2995,7 +2995,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39">
@@ -3003,7 +3003,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40">
@@ -3011,7 +3011,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41">
@@ -3019,7 +3019,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42">
@@ -3027,7 +3027,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43">
@@ -3035,7 +3035,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
@@ -3043,7 +3043,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45">
@@ -3051,7 +3051,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46">
@@ -3059,7 +3059,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -3100,7 +3100,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -3108,7 +3108,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -3116,7 +3116,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
@@ -3124,7 +3124,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -3132,7 +3132,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -3140,7 +3140,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -3148,7 +3148,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -3156,7 +3156,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -3164,7 +3164,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
@@ -3172,7 +3172,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -3180,7 +3180,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -3188,7 +3188,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
@@ -3196,7 +3196,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16">
@@ -3204,7 +3204,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17">
@@ -3212,7 +3212,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18">
@@ -3220,7 +3220,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
@@ -3228,7 +3228,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
@@ -3236,7 +3236,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
@@ -3244,7 +3244,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
@@ -3252,7 +3252,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
@@ -3260,7 +3260,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
@@ -3268,7 +3268,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
@@ -3276,7 +3276,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
@@ -3284,7 +3284,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27">
@@ -3292,7 +3292,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
@@ -3300,7 +3300,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29">
@@ -3308,7 +3308,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30">
@@ -3316,7 +3316,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
@@ -3372,7 +3372,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38">
@@ -3380,7 +3380,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39">
@@ -3388,7 +3388,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40">
@@ -3396,7 +3396,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41">
@@ -3404,7 +3404,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42">
@@ -3412,7 +3412,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43">
@@ -3420,7 +3420,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44">
@@ -3428,7 +3428,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
@@ -3436,7 +3436,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46">
@@ -3444,7 +3444,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -3485,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
@@ -3493,7 +3493,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -3501,7 +3501,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -3509,7 +3509,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
@@ -3517,7 +3517,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -3525,7 +3525,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
@@ -3533,7 +3533,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
@@ -3541,7 +3541,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
@@ -3549,7 +3549,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -3557,7 +3557,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
@@ -3565,7 +3565,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -3573,7 +3573,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
@@ -3581,7 +3581,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">
@@ -3589,7 +3589,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17">
@@ -3597,7 +3597,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
@@ -3605,7 +3605,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
@@ -3613,7 +3613,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
@@ -3621,7 +3621,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
@@ -3629,7 +3629,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
@@ -3637,7 +3637,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
@@ -3645,7 +3645,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
@@ -3653,7 +3653,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
@@ -3661,7 +3661,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
@@ -3669,7 +3669,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
@@ -3677,7 +3677,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28">
@@ -3685,7 +3685,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
@@ -3693,7 +3693,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
@@ -3701,7 +3701,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31">
@@ -3709,7 +3709,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
@@ -3757,7 +3757,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38">
@@ -3773,7 +3773,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40">
@@ -3781,7 +3781,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41">
@@ -3789,7 +3789,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42">
@@ -3797,7 +3797,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43">
@@ -3805,7 +3805,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44">
@@ -3813,7 +3813,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45">
@@ -3821,7 +3821,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46">
@@ -3829,7 +3829,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3862,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -3870,7 +3870,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -3878,7 +3878,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
@@ -3886,7 +3886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
@@ -3894,7 +3894,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -3902,7 +3902,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -3910,7 +3910,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
@@ -3918,7 +3918,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -3926,7 +3926,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
@@ -3942,7 +3942,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -3950,7 +3950,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
@@ -3958,7 +3958,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -3966,7 +3966,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -3974,7 +3974,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
@@ -3982,7 +3982,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18">
@@ -3990,7 +3990,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
@@ -3998,7 +3998,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20">
@@ -4006,7 +4006,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21">
@@ -4014,7 +4014,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -4022,7 +4022,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23">
@@ -4030,7 +4030,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
@@ -4038,7 +4038,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
@@ -4046,7 +4046,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
@@ -4054,7 +4054,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
@@ -4062,7 +4062,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
@@ -4070,7 +4070,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
@@ -4078,7 +4078,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
@@ -4086,7 +4086,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
@@ -4094,7 +4094,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
@@ -4102,7 +4102,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
@@ -4110,7 +4110,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
@@ -4134,7 +4134,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37">
@@ -4158,7 +4158,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40">
@@ -4166,7 +4166,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41">
@@ -4174,7 +4174,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42">
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43">
@@ -4190,7 +4190,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44">
@@ -4198,7 +4198,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45">
@@ -4206,7 +4206,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
@@ -4214,7 +4214,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4247,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -4255,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -4263,7 +4263,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
@@ -4271,7 +4271,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
@@ -4279,7 +4279,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
@@ -4287,7 +4287,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
@@ -4295,7 +4295,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
@@ -4303,7 +4303,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
@@ -4311,7 +4311,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -4319,7 +4319,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
@@ -4327,7 +4327,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
@@ -4335,7 +4335,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -4343,7 +4343,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -4351,7 +4351,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
@@ -4359,7 +4359,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -4367,7 +4367,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -4375,7 +4375,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
@@ -4383,7 +4383,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
@@ -4391,7 +4391,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -4399,7 +4399,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
@@ -4407,7 +4407,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
@@ -4415,7 +4415,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
@@ -4423,7 +4423,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
@@ -4431,7 +4431,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
@@ -4439,7 +4439,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
@@ -4447,7 +4447,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
@@ -4455,7 +4455,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
@@ -4463,7 +4463,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
@@ -4471,7 +4471,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
@@ -4479,7 +4479,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
@@ -4535,7 +4535,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39">
@@ -4551,7 +4551,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
@@ -4559,7 +4559,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42">
@@ -4567,7 +4567,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43">
@@ -4575,7 +4575,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44">
@@ -4583,7 +4583,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45">
@@ -4591,7 +4591,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
@@ -4599,7 +4599,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4632,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -4640,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -4648,7 +4648,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
@@ -4656,7 +4656,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -4664,7 +4664,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
@@ -4688,7 +4688,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
@@ -4696,7 +4696,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
@@ -4704,7 +4704,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
@@ -4712,7 +4712,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -4720,7 +4720,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14">
@@ -4728,7 +4728,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15">
@@ -4736,7 +4736,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16">
@@ -4744,7 +4744,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17">
@@ -4752,7 +4752,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18">
@@ -4760,7 +4760,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19">
@@ -4768,7 +4768,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20">
@@ -4776,7 +4776,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21">
@@ -4784,7 +4784,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22">
@@ -4792,7 +4792,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23">
@@ -4800,7 +4800,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24">
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -5025,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -5033,7 +5033,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -5041,7 +5041,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -5049,7 +5049,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -5057,7 +5057,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -5065,7 +5065,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
@@ -5073,7 +5073,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
@@ -5081,7 +5081,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -5089,7 +5089,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
@@ -5097,7 +5097,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -5105,7 +5105,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
@@ -5113,7 +5113,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
@@ -5121,7 +5121,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
@@ -5129,7 +5129,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
@@ -5137,7 +5137,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
@@ -5145,7 +5145,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -5153,7 +5153,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -5161,7 +5161,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
@@ -5169,7 +5169,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
@@ -5177,7 +5177,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -5185,7 +5185,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
@@ -5193,7 +5193,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
@@ -5201,7 +5201,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
@@ -5209,7 +5209,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
@@ -5217,7 +5217,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
@@ -5225,7 +5225,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
@@ -5233,7 +5233,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
@@ -5241,7 +5241,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31">
@@ -5249,7 +5249,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
@@ -5257,7 +5257,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33">
@@ -5265,7 +5265,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34">
@@ -5281,7 +5281,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
@@ -5289,7 +5289,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
@@ -5297,7 +5297,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
@@ -5313,7 +5313,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40">
@@ -5337,7 +5337,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43">
@@ -5345,7 +5345,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44">
@@ -5353,7 +5353,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45">
@@ -5361,7 +5361,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
@@ -5369,7 +5369,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5402,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -5410,7 +5410,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -5418,7 +5418,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -5426,7 +5426,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -5434,7 +5434,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
@@ -5442,7 +5442,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -5450,7 +5450,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -5458,7 +5458,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
@@ -5466,7 +5466,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
@@ -5474,7 +5474,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -5482,7 +5482,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
@@ -5490,7 +5490,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
@@ -5498,7 +5498,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
@@ -5506,7 +5506,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
@@ -5514,7 +5514,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
@@ -5522,7 +5522,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
@@ -5530,7 +5530,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19">
@@ -5538,7 +5538,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
@@ -5546,7 +5546,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -5554,7 +5554,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
@@ -5562,7 +5562,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
@@ -5570,7 +5570,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
@@ -5578,7 +5578,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
@@ -5586,7 +5586,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26">
@@ -5594,7 +5594,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
@@ -5602,7 +5602,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
@@ -5610,7 +5610,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
@@ -5618,7 +5618,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
@@ -5626,7 +5626,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
@@ -5634,7 +5634,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
@@ -5642,7 +5642,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33">
@@ -5682,7 +5682,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38">
@@ -5690,7 +5690,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39">
@@ -5698,7 +5698,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
@@ -5706,7 +5706,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
@@ -5714,7 +5714,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42">
@@ -5730,7 +5730,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44">
@@ -5738,7 +5738,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45">
@@ -5746,7 +5746,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
@@ -5754,7 +5754,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5787,7 +5787,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -5803,7 +5803,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -5811,7 +5811,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -5819,7 +5819,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -5827,7 +5827,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8">
@@ -5835,7 +5835,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -5843,7 +5843,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -5851,7 +5851,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -5859,7 +5859,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
@@ -5867,7 +5867,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -5875,7 +5875,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
@@ -5883,7 +5883,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
@@ -5891,7 +5891,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
@@ -5899,7 +5899,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
@@ -5907,7 +5907,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
@@ -5915,7 +5915,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
@@ -5923,7 +5923,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
@@ -5931,7 +5931,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
@@ -5939,7 +5939,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22">
@@ -5947,7 +5947,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
@@ -5955,7 +5955,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
@@ -5963,7 +5963,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
@@ -5971,7 +5971,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -5979,7 +5979,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
@@ -5987,7 +5987,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
@@ -5995,7 +5995,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
@@ -6003,7 +6003,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
@@ -6011,7 +6011,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
@@ -6019,7 +6019,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
@@ -6027,7 +6027,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
@@ -6051,7 +6051,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36">
@@ -6059,7 +6059,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37">
@@ -6067,7 +6067,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38">
@@ -6075,7 +6075,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39">
@@ -6083,7 +6083,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40">
@@ -6091,7 +6091,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
@@ -6099,7 +6099,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
@@ -6107,7 +6107,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43">
@@ -6115,7 +6115,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44">
@@ -6123,7 +6123,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45">
@@ -6131,7 +6131,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
@@ -6139,7 +6139,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -6172,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -6180,7 +6180,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -6188,7 +6188,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -6196,7 +6196,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -6204,7 +6204,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -6212,7 +6212,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -6220,7 +6220,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -6228,7 +6228,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
@@ -6236,7 +6236,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
@@ -6244,7 +6244,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -6252,7 +6252,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -6260,7 +6260,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -6268,7 +6268,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
@@ -6276,7 +6276,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
@@ -6284,7 +6284,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
@@ -6292,7 +6292,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -6300,7 +6300,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -6308,7 +6308,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -6316,7 +6316,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
@@ -6324,7 +6324,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
@@ -6332,7 +6332,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
@@ -6340,7 +6340,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -6348,7 +6348,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25">
@@ -6356,7 +6356,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
@@ -6364,7 +6364,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27">
@@ -6372,7 +6372,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
@@ -6380,7 +6380,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
@@ -6388,7 +6388,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
@@ -6396,7 +6396,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
@@ -6404,7 +6404,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
@@ -6412,7 +6412,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33">
@@ -6428,7 +6428,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35">
@@ -6436,7 +6436,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36">
@@ -6444,7 +6444,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37">
@@ -6452,7 +6452,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38">
@@ -6460,7 +6460,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39">
@@ -6468,7 +6468,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
@@ -6476,7 +6476,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -6484,7 +6484,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
@@ -6492,7 +6492,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43">
@@ -6500,7 +6500,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44">
@@ -6508,7 +6508,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45">
@@ -6516,7 +6516,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46">
@@ -6524,7 +6524,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -6557,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -6565,7 +6565,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -6573,7 +6573,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -6581,7 +6581,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -6589,7 +6589,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -6597,7 +6597,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
@@ -6605,7 +6605,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -6613,7 +6613,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -6621,7 +6621,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
@@ -6629,7 +6629,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
@@ -6637,7 +6637,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
@@ -6645,7 +6645,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
@@ -6653,7 +6653,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
@@ -6661,7 +6661,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
@@ -6669,7 +6669,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
@@ -6677,7 +6677,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -6685,7 +6685,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
@@ -6693,7 +6693,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
@@ -6701,7 +6701,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -6709,7 +6709,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
@@ -6717,7 +6717,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
@@ -6725,7 +6725,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
@@ -6733,7 +6733,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25">
@@ -6741,7 +6741,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26">
@@ -6749,7 +6749,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -6757,7 +6757,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28">
@@ -6765,7 +6765,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29">
@@ -6773,7 +6773,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30">
@@ -6781,7 +6781,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
@@ -6789,7 +6789,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
@@ -6797,7 +6797,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33">
@@ -6813,7 +6813,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35">
@@ -6821,7 +6821,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36">
@@ -6829,7 +6829,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37">
@@ -6837,7 +6837,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38">
@@ -6845,7 +6845,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39">
@@ -6853,7 +6853,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
@@ -6861,7 +6861,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -6869,7 +6869,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
@@ -6877,7 +6877,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43">
@@ -6885,7 +6885,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44">
@@ -6893,7 +6893,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45">
@@ -6901,7 +6901,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46">
@@ -6909,7 +6909,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -6942,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
@@ -6950,7 +6950,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -6958,7 +6958,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -6966,7 +6966,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
@@ -6974,7 +6974,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -6982,7 +6982,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -6998,7 +6998,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
@@ -7006,7 +7006,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -7014,7 +7014,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
@@ -7022,7 +7022,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
@@ -7030,7 +7030,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
@@ -7038,7 +7038,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -7046,7 +7046,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16">
@@ -7054,7 +7054,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
@@ -7062,7 +7062,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18">
@@ -7070,7 +7070,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19">
@@ -7078,7 +7078,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20">
@@ -7086,7 +7086,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21">
@@ -7094,7 +7094,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22">
@@ -7102,7 +7102,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23">
@@ -7126,7 +7126,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26">
@@ -7134,7 +7134,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27">
@@ -7142,7 +7142,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
@@ -7335,7 +7335,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -7343,7 +7343,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -7351,7 +7351,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -7359,7 +7359,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -7367,7 +7367,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
@@ -7383,7 +7383,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -7391,7 +7391,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
@@ -7399,7 +7399,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
@@ -7407,7 +7407,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
@@ -7415,7 +7415,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
@@ -7423,7 +7423,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
@@ -7431,7 +7431,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
@@ -7439,7 +7439,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
@@ -7447,7 +7447,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
@@ -7455,7 +7455,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
@@ -7463,7 +7463,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
@@ -7471,7 +7471,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21">
@@ -7479,7 +7479,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
@@ -7487,7 +7487,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23">
@@ -7495,7 +7495,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24">
@@ -7503,7 +7503,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
@@ -7519,7 +7519,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27">
@@ -7527,7 +7527,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28">
@@ -7535,7 +7535,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
@@ -7543,7 +7543,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30">
@@ -7551,7 +7551,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
@@ -7712,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -7720,7 +7720,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -7728,7 +7728,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -7736,7 +7736,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -7744,7 +7744,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -7752,7 +7752,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -7768,7 +7768,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -7784,7 +7784,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
@@ -7792,7 +7792,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
@@ -7800,7 +7800,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
@@ -7808,7 +7808,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
@@ -7816,7 +7816,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
@@ -7824,7 +7824,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
@@ -7832,7 +7832,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
@@ -7840,7 +7840,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
@@ -7848,7 +7848,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20">
@@ -7856,7 +7856,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -7864,7 +7864,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22">
@@ -7872,7 +7872,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23">
@@ -7880,7 +7880,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
@@ -7888,7 +7888,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
@@ -7896,7 +7896,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
@@ -7904,7 +7904,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
@@ -7920,7 +7920,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
@@ -7928,7 +7928,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30">
@@ -7936,7 +7936,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
@@ -7944,7 +7944,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32">
@@ -7952,7 +7952,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
@@ -7960,7 +7960,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
@@ -8097,7 +8097,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -8105,7 +8105,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -8113,7 +8113,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -8121,7 +8121,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -8129,7 +8129,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -8137,7 +8137,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
@@ -8145,7 +8145,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
@@ -8161,7 +8161,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -8169,7 +8169,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -8177,7 +8177,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -8185,7 +8185,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
@@ -8193,7 +8193,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
@@ -8201,7 +8201,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
@@ -8209,7 +8209,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
@@ -8217,7 +8217,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18">
@@ -8225,7 +8225,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19">
@@ -8233,7 +8233,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
@@ -8241,7 +8241,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
@@ -8249,7 +8249,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
@@ -8257,7 +8257,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23">
@@ -8265,7 +8265,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
@@ -8273,7 +8273,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
@@ -8281,7 +8281,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -8329,7 +8329,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32">
@@ -8337,7 +8337,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33">
@@ -8345,7 +8345,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34">
@@ -8353,7 +8353,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35">
@@ -8361,7 +8361,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36">
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -8490,7 +8490,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -8498,7 +8498,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -8506,7 +8506,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -8514,7 +8514,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -8522,7 +8522,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -8530,7 +8530,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -8554,7 +8554,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -8562,7 +8562,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
@@ -8570,7 +8570,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
@@ -8578,7 +8578,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
@@ -8586,7 +8586,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -8594,7 +8594,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -8602,7 +8602,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
@@ -8610,7 +8610,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
@@ -8618,7 +8618,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
@@ -8626,7 +8626,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21">
@@ -8634,7 +8634,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
@@ -8642,7 +8642,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23">
@@ -8650,7 +8650,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
@@ -8658,7 +8658,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
@@ -8666,7 +8666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
@@ -8674,7 +8674,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27">
@@ -8730,7 +8730,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34">
@@ -8738,7 +8738,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35">
@@ -8746,7 +8746,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36">
@@ -8754,7 +8754,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37">
@@ -8762,7 +8762,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38">
@@ -8867,7 +8867,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -8875,7 +8875,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -8883,7 +8883,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -8891,7 +8891,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -8899,7 +8899,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
@@ -8907,7 +8907,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
@@ -8947,7 +8947,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
@@ -8955,7 +8955,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -8963,7 +8963,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
@@ -8971,7 +8971,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
@@ -8979,7 +8979,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
@@ -8987,7 +8987,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
@@ -8995,7 +8995,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
@@ -9003,7 +9003,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
@@ -9011,7 +9011,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
@@ -9019,7 +9019,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
@@ -9027,7 +9027,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
@@ -9035,7 +9035,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
@@ -9043,7 +9043,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25">
@@ -9051,7 +9051,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26">
@@ -9059,7 +9059,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
@@ -9067,7 +9067,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -9075,7 +9075,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
@@ -9139,7 +9139,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
@@ -9147,7 +9147,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38">
@@ -9155,7 +9155,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39">
@@ -9163,7 +9163,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40">
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -9260,7 +9260,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -9268,7 +9268,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -9276,7 +9276,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -9284,7 +9284,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
@@ -9308,7 +9308,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -9316,7 +9316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -9324,7 +9324,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -9332,7 +9332,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
@@ -9340,7 +9340,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -9348,7 +9348,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
@@ -9356,7 +9356,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -9364,7 +9364,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -9372,7 +9372,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
@@ -9380,7 +9380,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
@@ -9388,7 +9388,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
@@ -9396,7 +9396,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
@@ -9404,7 +9404,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -9412,7 +9412,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
@@ -9420,7 +9420,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
@@ -9428,7 +9428,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -9436,7 +9436,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
@@ -9444,7 +9444,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -9452,7 +9452,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28">
@@ -9460,7 +9460,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29">
@@ -9468,7 +9468,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
@@ -9476,7 +9476,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
@@ -9484,7 +9484,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
@@ -9492,7 +9492,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
@@ -9500,7 +9500,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
